--- a/ML_DF_Regression.xlsx
+++ b/ML_DF_Regression.xlsx
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K825"/>
+  <dimension ref="A1:K827"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29291,6 +29291,76 @@
         <v>120654280110</v>
       </c>
     </row>
+    <row r="826" spans="1:11">
+      <c r="A826" s="2">
+        <v>43665</v>
+      </c>
+      <c r="B826">
+        <v>62.06</v>
+      </c>
+      <c r="C826">
+        <v>1.12144</v>
+      </c>
+      <c r="D826">
+        <v>42.86000061035156</v>
+      </c>
+      <c r="E826">
+        <v>18323.28</v>
+      </c>
+      <c r="F826">
+        <v>7.33</v>
+      </c>
+      <c r="G826">
+        <v>23.65999984741211</v>
+      </c>
+      <c r="H826">
+        <v>2.013000011444092</v>
+      </c>
+      <c r="I826">
+        <v>63.055</v>
+      </c>
+      <c r="J826">
+        <v>2.28</v>
+      </c>
+      <c r="K826">
+        <v>99176913780</v>
+      </c>
+    </row>
+    <row r="827" spans="1:11">
+      <c r="A827" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B827">
+        <v>63.41</v>
+      </c>
+      <c r="C827">
+        <v>1.1208</v>
+      </c>
+      <c r="D827">
+        <v>42.86999893188477</v>
+      </c>
+      <c r="E827">
+        <v>18216.37</v>
+      </c>
+      <c r="F827">
+        <v>7.28</v>
+      </c>
+      <c r="G827">
+        <v>23.54000091552734</v>
+      </c>
+      <c r="H827">
+        <v>2.025000095367432</v>
+      </c>
+      <c r="I827">
+        <v>63.095</v>
+      </c>
+      <c r="J827">
+        <v>2.25</v>
+      </c>
+      <c r="K827">
+        <v>95371393507.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
